--- a/result/KALAGH.xlsx
+++ b/result/KALAGH.xlsx
@@ -1,155 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\K1_Files\Programing Project\Extraction App\result\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>ارزش  بورس (میلیارد تومان)</t>
-  </si>
-  <si>
-    <t>برایند اختلاف سرانه حقیقی بورس (میلیون تومان)</t>
-  </si>
-  <si>
-    <t>برایند اختلاف سرانه حقوقی بورس (میلیون تومان)</t>
-  </si>
-  <si>
-    <t>ارزش فرابورس (میلیارد تومان)</t>
-  </si>
-  <si>
-    <t>برایند اختلاف سرانه حقیقی فرابورس (میلیون تومان)</t>
-  </si>
-  <si>
-    <t>برایند اختلاف سرانه حقوقی فرابورس (میلیون تومان)</t>
-  </si>
-  <si>
-    <t>ارزش کل بازار</t>
-  </si>
-  <si>
-    <t>ورود/خروج نقدینگی</t>
-  </si>
-  <si>
-    <t>برایند اختلاف سرانه حقیقی</t>
-  </si>
-  <si>
-    <t>برایند اختلاف سرانه حقوقی</t>
-  </si>
-  <si>
-    <t>تاریخ</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>3617.4</t>
-  </si>
-  <si>
-    <t>-2412.7</t>
-  </si>
-  <si>
-    <t>160780.4</t>
-  </si>
-  <si>
-    <t>1824.6</t>
-  </si>
-  <si>
-    <t>-922.3</t>
-  </si>
-  <si>
-    <t>87559.6</t>
-  </si>
-  <si>
-    <t>5442.0</t>
-  </si>
-  <si>
-    <t>-1194.1</t>
-  </si>
-  <si>
-    <t>-3335.0</t>
-  </si>
-  <si>
-    <t>248340.0</t>
-  </si>
-  <si>
-    <t>2021/10/12</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3150.5</t>
-  </si>
-  <si>
-    <t>-1619.2</t>
-  </si>
-  <si>
-    <t>160724.6</t>
-  </si>
-  <si>
-    <t>1299.8</t>
-  </si>
-  <si>
-    <t>-2561.0</t>
-  </si>
-  <si>
-    <t>52298.8</t>
-  </si>
-  <si>
-    <t>4450.3</t>
-  </si>
-  <si>
-    <t>-771.6</t>
-  </si>
-  <si>
-    <t>-4180.2</t>
-  </si>
-  <si>
-    <t>213023.4</t>
-  </si>
-  <si>
-    <t>2021/10/13</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -164,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -488,141 +420,265 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ارزش  بورس (میلیارد تومان)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>برایند اختلاف سرانه حقیقی بورس (میلیون تومان)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>برایند اختلاف سرانه حقوقی بورس (میلیون تومان)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ارزش فرابورس (میلیارد تومان)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>برایند اختلاف سرانه حقیقی فرابورس (میلیون تومان)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>برایند اختلاف سرانه حقوقی فرابورس (میلیون تومان)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ارزش کل بازار</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>ورود/خروج نقدینگی</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>برایند اختلاف سرانه حقیقی</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>برایند اختلاف سرانه حقوقی</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>تاریخ</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>3617.4</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>-2412.7</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>160780.4</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1824.6</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-922.3</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>87559.6</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>5442.0</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>-1194.1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>-3335.0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>248340.0</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2021/10/12</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" t="s">
-        <v>35</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3150.5</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-1619.2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>160724.6</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1299.8</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-2561.0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>52298.8</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>4450.3</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>-771.6</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>-4180.2</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>213023.4</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2021/10/13</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3366.6</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4257.4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11301.1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1483.4</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2592.1</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-12456.7</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>4850.0</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>545.1</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>6849.5</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>-1155.6</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>2021/10/16</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/result/KALAGH.xlsx
+++ b/result/KALAGH.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>ID</t>
   </si>
@@ -199,6 +199,78 @@
   </si>
   <si>
     <t>2021/10/17</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3319.6</t>
+  </si>
+  <si>
+    <t>-756.6</t>
+  </si>
+  <si>
+    <t>99220.9</t>
+  </si>
+  <si>
+    <t>1673.7</t>
+  </si>
+  <si>
+    <t>-1327.2</t>
+  </si>
+  <si>
+    <t>47135.4</t>
+  </si>
+  <si>
+    <t>4993.3</t>
+  </si>
+  <si>
+    <t>-710.4</t>
+  </si>
+  <si>
+    <t>-2083.8</t>
+  </si>
+  <si>
+    <t>146356.3</t>
+  </si>
+  <si>
+    <t>2021/10/18</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2964.5</t>
+  </si>
+  <si>
+    <t>1249.1</t>
+  </si>
+  <si>
+    <t>39443.4</t>
+  </si>
+  <si>
+    <t>1351.2</t>
+  </si>
+  <si>
+    <t>73.3</t>
+  </si>
+  <si>
+    <t>8170.3</t>
+  </si>
+  <si>
+    <t>4315.7</t>
+  </si>
+  <si>
+    <t>-185.7</t>
+  </si>
+  <si>
+    <t>1322.4</t>
+  </si>
+  <si>
+    <t>47613.7</t>
+  </si>
+  <si>
+    <t>2021/10/19</t>
   </si>
 </sst>
 </file>
@@ -561,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,6 +845,82 @@
         <v>59</v>
       </c>
     </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/result/KALAGH.xlsx
+++ b/result/KALAGH.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -60,217 +60,145 @@
     <t>0</t>
   </si>
   <si>
-    <t>3617.4</t>
-  </si>
-  <si>
-    <t>-2412.7</t>
-  </si>
-  <si>
-    <t>160780.4</t>
-  </si>
-  <si>
-    <t>1824.6</t>
-  </si>
-  <si>
-    <t>-922.3</t>
-  </si>
-  <si>
-    <t>87559.6</t>
-  </si>
-  <si>
-    <t>5442.0</t>
-  </si>
-  <si>
-    <t>-1194.1</t>
-  </si>
-  <si>
-    <t>-3335.0</t>
-  </si>
-  <si>
-    <t>248340.0</t>
-  </si>
-  <si>
-    <t>2021/10/12</t>
+    <t>2649.5</t>
+  </si>
+  <si>
+    <t>295.5</t>
+  </si>
+  <si>
+    <t>58116.0</t>
+  </si>
+  <si>
+    <t>1343.4</t>
+  </si>
+  <si>
+    <t>674.9</t>
+  </si>
+  <si>
+    <t>30180.3</t>
+  </si>
+  <si>
+    <t>3992.9</t>
+  </si>
+  <si>
+    <t>-330.2</t>
+  </si>
+  <si>
+    <t>970.4</t>
+  </si>
+  <si>
+    <t>88296.3</t>
+  </si>
+  <si>
+    <t>2021/10/20</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>3150.5</t>
-  </si>
-  <si>
-    <t>-1619.2</t>
-  </si>
-  <si>
-    <t>160724.6</t>
-  </si>
-  <si>
-    <t>1299.8</t>
-  </si>
-  <si>
-    <t>-2561.0</t>
-  </si>
-  <si>
-    <t>52298.8</t>
-  </si>
-  <si>
-    <t>4450.3</t>
-  </si>
-  <si>
-    <t>-771.6</t>
-  </si>
-  <si>
-    <t>-4180.2</t>
-  </si>
-  <si>
-    <t>213023.4</t>
-  </si>
-  <si>
-    <t>2021/10/13</t>
+    <t>2779.0</t>
+  </si>
+  <si>
+    <t>-4300.7</t>
+  </si>
+  <si>
+    <t>131297.8</t>
+  </si>
+  <si>
+    <t>1387.9</t>
+  </si>
+  <si>
+    <t>-1816.0</t>
+  </si>
+  <si>
+    <t>65672.3</t>
+  </si>
+  <si>
+    <t>4166.9</t>
+  </si>
+  <si>
+    <t>-774.3</t>
+  </si>
+  <si>
+    <t>-6116.7</t>
+  </si>
+  <si>
+    <t>196970.1</t>
+  </si>
+  <si>
+    <t>2021/10/24</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>3366.6</t>
-  </si>
-  <si>
-    <t>4257.4</t>
-  </si>
-  <si>
-    <t>11301.1</t>
-  </si>
-  <si>
-    <t>1483.4</t>
-  </si>
-  <si>
-    <t>2592.1</t>
-  </si>
-  <si>
-    <t>-12456.7</t>
-  </si>
-  <si>
-    <t>4850.0</t>
-  </si>
-  <si>
-    <t>545.1</t>
-  </si>
-  <si>
-    <t>6849.5</t>
-  </si>
-  <si>
-    <t>-1155.6</t>
-  </si>
-  <si>
-    <t>2021/10/16</t>
+    <t>2545.0</t>
+  </si>
+  <si>
+    <t>-683.8</t>
+  </si>
+  <si>
+    <t>89423.5</t>
+  </si>
+  <si>
+    <t>1165.3</t>
+  </si>
+  <si>
+    <t>-2423.3</t>
+  </si>
+  <si>
+    <t>61315.4</t>
+  </si>
+  <si>
+    <t>3710.3</t>
+  </si>
+  <si>
+    <t>-447.9</t>
+  </si>
+  <si>
+    <t>-3107.1</t>
+  </si>
+  <si>
+    <t>150738.9</t>
+  </si>
+  <si>
+    <t>2021/10/26</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>3445.4</t>
-  </si>
-  <si>
-    <t>682.0</t>
-  </si>
-  <si>
-    <t>158312.7</t>
-  </si>
-  <si>
-    <t>1591.6</t>
-  </si>
-  <si>
-    <t>1185.1</t>
-  </si>
-  <si>
-    <t>55985.9</t>
-  </si>
-  <si>
-    <t>5037.0</t>
-  </si>
-  <si>
-    <t>-564.5</t>
-  </si>
-  <si>
-    <t>1867.1</t>
-  </si>
-  <si>
-    <t>214298.6</t>
-  </si>
-  <si>
-    <t>2021/10/17</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3319.6</t>
-  </si>
-  <si>
-    <t>-756.6</t>
-  </si>
-  <si>
-    <t>99220.9</t>
-  </si>
-  <si>
-    <t>1673.7</t>
-  </si>
-  <si>
-    <t>-1327.2</t>
-  </si>
-  <si>
-    <t>47135.4</t>
-  </si>
-  <si>
-    <t>4993.3</t>
-  </si>
-  <si>
-    <t>-710.4</t>
-  </si>
-  <si>
-    <t>-2083.8</t>
-  </si>
-  <si>
-    <t>146356.3</t>
-  </si>
-  <si>
-    <t>2021/10/18</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>2964.5</t>
-  </si>
-  <si>
-    <t>1249.1</t>
-  </si>
-  <si>
-    <t>39443.4</t>
-  </si>
-  <si>
-    <t>1351.2</t>
-  </si>
-  <si>
-    <t>73.3</t>
-  </si>
-  <si>
-    <t>8170.3</t>
-  </si>
-  <si>
-    <t>4315.7</t>
-  </si>
-  <si>
-    <t>-185.7</t>
-  </si>
-  <si>
-    <t>1322.4</t>
-  </si>
-  <si>
-    <t>47613.7</t>
-  </si>
-  <si>
-    <t>2021/10/19</t>
+    <t>2698.1</t>
+  </si>
+  <si>
+    <t>-1046.0</t>
+  </si>
+  <si>
+    <t>183773.3</t>
+  </si>
+  <si>
+    <t>1632.2</t>
+  </si>
+  <si>
+    <t>-1916.4</t>
+  </si>
+  <si>
+    <t>-45257.8</t>
+  </si>
+  <si>
+    <t>4330.3</t>
+  </si>
+  <si>
+    <t>-663.0</t>
+  </si>
+  <si>
+    <t>-2962.4</t>
+  </si>
+  <si>
+    <t>138515.5</t>
+  </si>
+  <si>
+    <t>2021/10/30</t>
   </si>
 </sst>
 </file>
@@ -633,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,82 +773,6 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J6" t="s">
-        <v>69</v>
-      </c>
-      <c r="K6" t="s">
-        <v>70</v>
-      </c>
-      <c r="L6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I7" t="s">
-        <v>80</v>
-      </c>
-      <c r="J7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L7" t="s">
-        <v>83</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
